--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Apob-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Apob-Ldlr.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.672264666666667</v>
+        <v>1.090291</v>
       </c>
       <c r="N2">
-        <v>8.016794000000001</v>
+        <v>3.270873</v>
       </c>
       <c r="O2">
-        <v>0.06772620019093417</v>
+        <v>0.02878663098006733</v>
       </c>
       <c r="P2">
-        <v>0.06772620019093417</v>
+        <v>0.02878663098006733</v>
       </c>
       <c r="Q2">
-        <v>0.03878881239155556</v>
+        <v>0.01582593729533333</v>
       </c>
       <c r="R2">
-        <v>0.349099311524</v>
+        <v>0.142433435658</v>
       </c>
       <c r="S2">
-        <v>0.06772620019093417</v>
+        <v>0.02878663098006733</v>
       </c>
       <c r="T2">
-        <v>0.06772620019093417</v>
+        <v>0.02878663098006733</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>82.25658</v>
       </c>
       <c r="O3">
-        <v>0.6949069171668364</v>
+        <v>0.7239320554917256</v>
       </c>
       <c r="P3">
-        <v>0.6949069171668364</v>
+        <v>0.7239320554917257</v>
       </c>
       <c r="Q3">
         <v>0.39799389252</v>
@@ -632,10 +632,10 @@
         <v>3.58194503268</v>
       </c>
       <c r="S3">
-        <v>0.6949069171668364</v>
+        <v>0.7239320554917256</v>
       </c>
       <c r="T3">
-        <v>0.6949069171668364</v>
+        <v>0.7239320554917257</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>28.097271</v>
       </c>
       <c r="O4">
-        <v>0.2373668826422294</v>
+        <v>0.2472813135282071</v>
       </c>
       <c r="P4">
-        <v>0.2373668826422294</v>
+        <v>0.2472813135282071</v>
       </c>
       <c r="Q4">
         <v>0.135947084774</v>
@@ -694,10 +694,10 @@
         <v>1.223523762966</v>
       </c>
       <c r="S4">
-        <v>0.2373668826422294</v>
+        <v>0.2472813135282071</v>
       </c>
       <c r="T4">
-        <v>0.2373668826422294</v>
+        <v>0.2472813135282071</v>
       </c>
     </row>
   </sheetData>
